--- a/Calidad_Software1/Calidad_Software1/Archivos/Padron Asociados.xlsx
+++ b/Calidad_Software1/Calidad_Software1/Archivos/Padron Asociados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopezpes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -466,7 +466,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,7 +483,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -769,13 +769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1475,1216 +1475,6 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E98" s="1"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E99" s="1"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E100" s="1"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E103" s="1"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E104" s="1"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E108" s="1"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E109" s="1"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E110" s="1"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E111" s="1"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E112" s="1"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E142" s="1"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E143" s="1"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E144" s="1"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E145" s="1"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E146" s="1"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E147" s="1"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E148" s="1"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="4"/>
-    </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E149" s="1"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E150" s="1"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E151" s="1"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E152" s="1"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E153" s="1"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E154" s="1"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E155" s="1"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E156" s="1"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E157" s="1"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E158" s="1"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E159" s="1"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E160" s="1"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E161" s="1"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E162" s="1"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E163" s="1"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E164" s="1"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E165" s="1"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E166" s="1"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E167" s="1"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E168" s="1"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E169" s="1"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E170" s="1"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E171" s="1"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E172" s="1"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E173" s="1"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="4"/>
-    </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E174" s="1"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="4"/>
-    </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E175" s="1"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="4"/>
-    </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E176" s="1"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="4"/>
-    </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E177" s="1"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="4"/>
-    </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E178" s="1"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E179" s="1"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="4"/>
-    </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E180" s="1"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E181" s="1"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E182" s="1"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="4"/>
-    </row>
-    <row r="183" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E183" s="1"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E184" s="1"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="4"/>
-    </row>
-    <row r="185" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E185" s="1"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E186" s="1"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E187" s="1"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="4"/>
-    </row>
-    <row r="188" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E188" s="1"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E189" s="1"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="4"/>
-    </row>
-    <row r="190" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E190" s="1"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="4"/>
-    </row>
-    <row r="191" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E191" s="1"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="4"/>
-    </row>
-    <row r="192" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E192" s="1"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E193" s="1"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E194" s="1"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E195" s="1"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E196" s="1"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E197" s="1"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E198" s="1"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E199" s="1"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E200" s="1"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E201" s="1"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E202" s="1"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E203" s="1"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E204" s="1"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E205" s="1"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E206" s="1"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E207" s="1"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E208" s="1"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E209" s="1"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E210" s="1"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E211" s="1"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E212" s="1"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="4"/>
-    </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E213" s="1"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="4"/>
-    </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E214" s="1"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="4"/>
-    </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E215" s="1"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="4"/>
-    </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E216" s="1"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="4"/>
-    </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E217" s="1"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="4"/>
-    </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E218" s="1"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="4"/>
-    </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E219" s="1"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="4"/>
-    </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E220" s="1"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="4"/>
-    </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E221" s="1"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="4"/>
-    </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E222" s="1"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="4"/>
-    </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E223" s="1"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="4"/>
-    </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E224" s="1"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="4"/>
-    </row>
-    <row r="225" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E225" s="1"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="4"/>
-    </row>
-    <row r="226" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E226" s="1"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="4"/>
-    </row>
-    <row r="227" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E227" s="1"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="4"/>
-    </row>
-    <row r="228" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E228" s="1"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="4"/>
-    </row>
-    <row r="229" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E229" s="1"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="4"/>
-    </row>
-    <row r="230" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E230" s="1"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="4"/>
-    </row>
-    <row r="231" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E231" s="1"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="4"/>
-    </row>
-    <row r="232" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E232" s="1"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="4"/>
-    </row>
-    <row r="233" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E233" s="1"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="4"/>
-    </row>
-    <row r="234" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E234" s="1"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="4"/>
-    </row>
-    <row r="235" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E235" s="1"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="4"/>
-    </row>
-    <row r="236" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E236" s="1"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="4"/>
-    </row>
-    <row r="237" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E237" s="1"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="4"/>
-    </row>
-    <row r="238" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E238" s="1"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="4"/>
-    </row>
-    <row r="239" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E239" s="1"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="4"/>
-    </row>
-    <row r="240" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E240" s="1"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="4"/>
-    </row>
-    <row r="241" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E241" s="1"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="4"/>
-    </row>
-    <row r="242" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E242" s="1"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="4"/>
-    </row>
-    <row r="243" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E243" s="1"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="4"/>
-    </row>
-    <row r="244" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E244" s="1"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="4"/>
-    </row>
-    <row r="245" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E245" s="1"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="4"/>
-    </row>
-    <row r="246" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E246" s="1"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="4"/>
-    </row>
-    <row r="247" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E247" s="1"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="4"/>
-    </row>
-    <row r="248" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E248" s="1"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="4"/>
-    </row>
-    <row r="249" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E249" s="1"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="4"/>
-    </row>
-    <row r="250" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E250" s="1"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="4"/>
-    </row>
-    <row r="251" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E251" s="1"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="4"/>
-    </row>
-    <row r="252" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E252" s="1"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="4"/>
-    </row>
-    <row r="253" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E253" s="1"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="4"/>
-    </row>
-    <row r="254" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E254" s="1"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="4"/>
-    </row>
-    <row r="255" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E255" s="1"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="4"/>
-    </row>
-    <row r="256" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E256" s="1"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="4"/>
-    </row>
-    <row r="257" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E257" s="1"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="4"/>
-    </row>
-    <row r="258" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E258" s="1"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="4"/>
-    </row>
-    <row r="259" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E259" s="1"/>
-      <c r="F259" s="3"/>
-      <c r="G259" s="4"/>
-    </row>
-    <row r="260" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E260" s="1"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="4"/>
-    </row>
-    <row r="261" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E261" s="1"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="4"/>
-    </row>
-    <row r="262" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E262" s="1"/>
-      <c r="F262" s="3"/>
-      <c r="G262" s="4"/>
-    </row>
-    <row r="263" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E263" s="1"/>
-      <c r="F263" s="3"/>
-      <c r="G263" s="4"/>
-    </row>
-    <row r="264" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E264" s="1"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="4"/>
-    </row>
-    <row r="265" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E265" s="1"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="4"/>
-    </row>
-    <row r="266" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E266" s="1"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="4"/>
-    </row>
-    <row r="267" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E267" s="1"/>
-      <c r="F267" s="3"/>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="268" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E268" s="1"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="4"/>
-    </row>
-    <row r="269" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E269" s="1"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="4"/>
-    </row>
-    <row r="270" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E270" s="1"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="4"/>
-    </row>
-    <row r="271" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E271" s="1"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="4"/>
-    </row>
-    <row r="272" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E272" s="1"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="4"/>
-    </row>
-    <row r="273" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E273" s="1"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="4"/>
-    </row>
-    <row r="274" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E274" s="1"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="4"/>
-    </row>
-    <row r="275" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E275" s="1"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="4"/>
-    </row>
-    <row r="276" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E276" s="1"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="4"/>
-    </row>
-    <row r="277" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E277" s="1"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="4"/>
-    </row>
-    <row r="278" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E278" s="1"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="4"/>
-    </row>
-    <row r="279" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E279" s="1"/>
-      <c r="F279" s="3"/>
-      <c r="G279" s="4"/>
-    </row>
-    <row r="280" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E280" s="1"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="4"/>
-    </row>
-    <row r="281" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E281" s="1"/>
-      <c r="F281" s="3"/>
-      <c r="G281" s="4"/>
-    </row>
-    <row r="282" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E282" s="1"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="4"/>
-    </row>
-    <row r="283" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E283" s="1"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="4"/>
-    </row>
-    <row r="284" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E284" s="1"/>
-      <c r="F284" s="3"/>
-      <c r="G284" s="4"/>
-    </row>
-    <row r="285" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E285" s="1"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="4"/>
-    </row>
-    <row r="286" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E286" s="1"/>
-      <c r="F286" s="3"/>
-      <c r="G286" s="4"/>
-    </row>
-    <row r="287" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E287" s="1"/>
-      <c r="F287" s="3"/>
-      <c r="G287" s="4"/>
-    </row>
-    <row r="288" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E288" s="1"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="4"/>
-    </row>
-    <row r="289" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E289" s="1"/>
-      <c r="F289" s="3"/>
-      <c r="G289" s="4"/>
-    </row>
-    <row r="290" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E290" s="1"/>
-      <c r="F290" s="3"/>
-      <c r="G290" s="4"/>
-    </row>
-    <row r="291" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E291" s="1"/>
-      <c r="F291" s="3"/>
-      <c r="G291" s="4"/>
-    </row>
-    <row r="292" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E292" s="1"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="4"/>
-    </row>
-    <row r="293" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E293" s="1"/>
-      <c r="F293" s="3"/>
-      <c r="G293" s="4"/>
-    </row>
-    <row r="294" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E294" s="1"/>
-      <c r="F294" s="3"/>
-      <c r="G294" s="4"/>
-    </row>
-    <row r="295" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E295" s="1"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="4"/>
-    </row>
-    <row r="296" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E296" s="1"/>
-      <c r="F296" s="3"/>
-      <c r="G296" s="4"/>
-    </row>
-    <row r="297" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E297" s="1"/>
-      <c r="F297" s="3"/>
-      <c r="G297" s="4"/>
-    </row>
-    <row r="298" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E298" s="1"/>
-      <c r="F298" s="3"/>
-      <c r="G298" s="4"/>
-    </row>
-    <row r="299" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E299" s="1"/>
-      <c r="F299" s="3"/>
-      <c r="G299" s="4"/>
-    </row>
-    <row r="300" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E300" s="1"/>
-      <c r="F300" s="3"/>
-      <c r="G300" s="4"/>
-    </row>
-    <row r="301" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E301" s="1"/>
-      <c r="F301" s="3"/>
-      <c r="G301" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>

--- a/Calidad_Software1/Calidad_Software1/Archivos/Padron Asociados.xlsx
+++ b/Calidad_Software1/Calidad_Software1/Archivos/Padron Asociados.xlsx
@@ -33,9 +33,6 @@
     <t>Número Cédula</t>
   </si>
   <si>
-    <t xml:space="preserve">GONZALEZ QUIROS PAOLA DANIELA               </t>
-  </si>
-  <si>
     <t xml:space="preserve">GRANADOS CORDERO MARIA JOSE                 </t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>GONZALEZ QUIROS PAOLA</t>
   </si>
 </sst>
 </file>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,683 +796,683 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
